--- a/tables/3.Educación/Educación.xlsx
+++ b/tables/3.Educación/Educación.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA/total/tables/3.Educación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/3.Educación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D15E6F-5C83-46B9-8AA4-241541E2CA9F}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFCC6D6-548F-4DC5-963C-A2C0DF4384FF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
   <sheets>
     <sheet name="q36" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="q38" sheetId="9" r:id="rId3"/>
     <sheet name="q39" sheetId="10" r:id="rId4"/>
     <sheet name="q41" sheetId="11" r:id="rId5"/>
+    <sheet name="q42" sheetId="12" r:id="rId6"/>
+    <sheet name="q44" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
   <si>
     <t>Ninguna</t>
   </si>
@@ -247,6 +249,69 @@
   </si>
   <si>
     <t>Discriminación de hijes en la escuela</t>
+  </si>
+  <si>
+    <t>Mejor trabajo</t>
+  </si>
+  <si>
+    <t>Nuevas experiencias</t>
+  </si>
+  <si>
+    <t>Violencia Género</t>
+  </si>
+  <si>
+    <t>Orientación sexual</t>
+  </si>
+  <si>
+    <t>Persecusión</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Necesidades básicas</t>
+  </si>
+  <si>
+    <t>Reunificación</t>
+  </si>
+  <si>
+    <t>Acompañar a otrx</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Motivos migración</t>
+  </si>
+  <si>
+    <t>Estudia actualmente</t>
+  </si>
+  <si>
+    <t>Estudios</t>
+  </si>
+  <si>
+    <t>Título origen</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Documentación escolar</t>
+  </si>
+  <si>
+    <t>Inscripción online</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Discriminació</t>
+  </si>
+  <si>
+    <t>Inconvenientes para la inscripción en el sistema educativo</t>
   </si>
 </sst>
 </file>
@@ -336,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,6 +487,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,9 +512,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -449,7 +520,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -768,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D28E8-ED79-4903-B6C8-37423C6F0919}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,31 +858,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -987,31 +1064,31 @@
       <c r="A15" s="41"/>
     </row>
     <row r="16" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="24" t="s">
         <v>2</v>
       </c>
@@ -1113,71 +1190,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="28"/>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
     </row>
     <row r="3" spans="1:24" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="20" t="s">
         <v>35</v>
       </c>
@@ -1838,37 +1915,37 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
       </c>
@@ -2119,68 +2196,68 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="50"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="N32" s="43" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="N32" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43" t="s">
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2449,37 +2526,37 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="50"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="24" t="s">
         <v>43</v>
       </c>
@@ -2581,6 +2658,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="B2:L2"/>
@@ -2591,15 +2677,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2624,43 +2701,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
@@ -3005,43 +3082,43 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
@@ -3219,35 +3296,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
@@ -3436,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D078B-93C4-4F2B-8FAB-8CBBCA5D6A31}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,35 +3526,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="25"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
@@ -3790,35 +3867,35 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="25"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="24" t="s">
         <v>2</v>
       </c>
@@ -3970,7 +4047,529 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710C17C0-C48D-4271-AB51-26E0F6033569}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="2.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="49"/>
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="34">
+        <v>322.41744107300002</v>
+      </c>
+      <c r="C4" s="34">
+        <v>461.76051358400002</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4">
+        <v>9.1</v>
+      </c>
+      <c r="F4">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1271.268050681</v>
+      </c>
+      <c r="C5" s="35">
+        <v>252.996695644</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5">
+        <v>35.9</v>
+      </c>
+      <c r="F5">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="35">
+        <v>478.342510377</v>
+      </c>
+      <c r="C6" s="35">
+        <v>235.37665085399999</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6">
+        <v>13.5</v>
+      </c>
+      <c r="F6">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="35">
+        <v>61.551661703000001</v>
+      </c>
+      <c r="C7" s="35">
+        <v>24.789474720000001</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7">
+        <v>1.7</v>
+      </c>
+      <c r="F7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="35">
+        <v>30.155914872</v>
+      </c>
+      <c r="C8" s="35">
+        <v>36.586533281000001</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="35">
+        <v>278.95867698799998</v>
+      </c>
+      <c r="C9" s="35">
+        <v>84.897727410000002</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9">
+        <v>7.9</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="35">
+        <v>93.342315157000002</v>
+      </c>
+      <c r="C10" s="35">
+        <v>23.751210487999998</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10">
+        <v>2.6</v>
+      </c>
+      <c r="F10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35">
+        <v>59.614771623000003</v>
+      </c>
+      <c r="C11" s="35">
+        <v>15.474625570000001</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11">
+        <v>1.7</v>
+      </c>
+      <c r="F11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="35">
+        <v>559.05326324600003</v>
+      </c>
+      <c r="C12" s="35">
+        <v>133.78150399699999</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12">
+        <v>15.8</v>
+      </c>
+      <c r="F12">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="35">
+        <v>575.68352093099998</v>
+      </c>
+      <c r="C13" s="35">
+        <v>152.95041516200001</v>
+      </c>
+      <c r="E13">
+        <v>16.2</v>
+      </c>
+      <c r="F13">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="35">
+        <v>289.26607613099998</v>
+      </c>
+      <c r="C14" s="35">
+        <v>85.746964234000004</v>
+      </c>
+      <c r="E14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F14">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="35">
+        <v>441.25765889299998</v>
+      </c>
+      <c r="C15" s="35">
+        <v>136.061229126</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="36">
+        <v>3543.9523763779998</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1135.0932137990001</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4BAC9-2733-45D1-A7C3-FFF0284F0753}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" customWidth="1"/>
+    <col min="5" max="6" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="49"/>
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7.2881504189999999</v>
+      </c>
+      <c r="C4" s="12">
+        <v>52.305704404000004</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12.50301035</v>
+      </c>
+      <c r="C5" s="12">
+        <v>21.511633739000001</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5">
+        <v>3.8</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2.2868702550000002</v>
+      </c>
+      <c r="C6" s="12">
+        <v>19.805413001999998</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3.4664190389999998</v>
+      </c>
+      <c r="C7" s="12">
+        <v>18.592710278000002</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3.205005871</v>
+      </c>
+      <c r="C8" s="12">
+        <v>15.290340855</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>12.703299546</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4.7933505080000005</v>
+      </c>
+      <c r="C10" s="12">
+        <v>15.57471879</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36">
+        <v>327.10998465699998</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4351.9356055199996</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C67237C462054AB2A2EEBF6DF77606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35c831603d7ab223d2f5d2ab06f125ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d13d130-f367-41bf-8435-aab6481a31cc" xmlns:ns4="9840afb1-5d18-42a2-bcba-2c8e802c66c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8448abd0b4646354f8a217217672beb0" ns3:_="" ns4:_="">
     <xsd:import namespace="1d13d130-f367-41bf-8435-aab6481a31cc"/>
@@ -4197,15 +4796,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4215,6 +4805,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4229,14 +4827,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tables/3.Educación/Educación.xlsx
+++ b/tables/3.Educación/Educación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/3.Educación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCFCC6D6-548F-4DC5-963C-A2C0DF4384FF}"/>
+  <xr:revisionPtr revIDLastSave="814" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C828CF-4F50-4A89-8F51-8A1F022793B2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
   <sheets>
     <sheet name="q36" sheetId="4" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,12 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,6 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,6 +512,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,15 +523,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D28E8-ED79-4903-B6C8-37423C6F0919}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,167 +900,167 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10">
-        <v>58.814210000000003</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1594.3614500000001</v>
+      <c r="B4" s="32">
+        <v>60.457725206000006</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1514.644139453</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8">
         <f t="shared" ref="E4:F8" si="0">+B4/B$12*100</f>
-        <v>19.241162081691716</v>
+        <v>18.482384531733135</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>36.45683267388636</v>
+        <v>34.803918916718892</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11">
-        <v>4.2929649999999997</v>
-      </c>
-      <c r="C5" s="11">
-        <v>179.08441500000001</v>
+      <c r="B5" s="33">
+        <v>3.9147561050000004</v>
+      </c>
+      <c r="C5" s="33">
+        <v>169.50931698700001</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>1.4044503084548727</v>
+        <v>1.1967705935680697</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>4.0949626272987381</v>
+        <v>3.895032747543282</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11">
-        <v>5.1410999999999998</v>
-      </c>
-      <c r="C6" s="11">
-        <v>16.233029999999999</v>
+      <c r="B6" s="33">
+        <v>4.379689538</v>
+      </c>
+      <c r="C6" s="33">
+        <v>16.089157491999998</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>1.6819190188593074</v>
+        <v>1.3389042656684547</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>0.37118613128796957</v>
+        <v>0.36970118472324121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11">
-        <v>5.1033759999999999</v>
-      </c>
-      <c r="C7" s="11">
-        <v>22.998263999999999</v>
+      <c r="B7" s="33">
+        <v>5.5671133399999997</v>
+      </c>
+      <c r="C7" s="33">
+        <v>22.907976396999999</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>1.6695775524284953</v>
+        <v>1.7019087160661104</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0.52588066679476242</v>
+        <v>0.52638592280509622</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11">
-        <v>3.5665770000000001</v>
-      </c>
-      <c r="C8" s="11">
-        <v>17.162604999999999</v>
+      <c r="B8" s="33">
+        <v>3.2966271160000002</v>
+      </c>
+      <c r="C8" s="33">
+        <v>15.202408373999999</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>1.1668113221929495</v>
+        <v>1.0078038796207238</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>0.39244188871538849</v>
+        <v>0.34932521415797718</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="11">
-        <v>1.3970320000000001</v>
-      </c>
-      <c r="C9" s="11">
-        <v>13.111791999999999</v>
+      <c r="B9" s="33">
+        <v>1.3047807310000001</v>
+      </c>
+      <c r="C9" s="33">
+        <v>12.177111426</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="8">
         <f t="shared" ref="E9:E10" si="1">+B9/B$12*100</f>
-        <v>0.45704123451305284</v>
+        <v>0.39888135251149959</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:F10" si="2">+C9/C$12*100</f>
-        <v>0.29981558259502683</v>
+        <v>0.27980909024836076</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11">
-        <v>1.1617150000000001</v>
-      </c>
-      <c r="C10" s="11">
-        <v>27.800398999999999</v>
+      <c r="B10" s="33">
+        <v>1.7297506329999999</v>
+      </c>
+      <c r="C10" s="33">
+        <v>30.708064773</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>0.38005690474687143</v>
+        <v>0.52879787048193494</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>0.63568677893602965</v>
+        <v>0.70561854670022828</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13">
-        <v>305.6687</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4373.2857000000004</v>
+      <c r="B12" s="34">
+        <v>327.10998465699998</v>
+      </c>
+      <c r="C12" s="34">
+        <v>4351.9356055199996</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="14" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
@@ -1089,13 +1088,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1107,51 +1106,51 @@
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10">
-        <v>58.814210000000003</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1594.3614500000001</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="B19" s="13">
+        <v>60.111843516000008</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1505.112812073</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19">
-        <v>19.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F19">
-        <v>36.5</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="11">
-        <v>14.19486</v>
-      </c>
-      <c r="C20" s="11">
-        <v>232.38761</v>
+      <c r="B20" s="13">
+        <v>14.422458667000001</v>
+      </c>
+      <c r="C20" s="13">
+        <v>221.41429058899999</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="13">
-        <v>305.6687</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4373.2857000000004</v>
+      <c r="B22" s="34">
+        <v>327.10998465699998</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4351.9356055199996</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1177,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2B3C0-0822-4557-9633-BD290726DFF7}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,39 +1189,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="54" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="46" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1235,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
-      <c r="M2" s="28"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="46" t="s">
         <v>5</v>
       </c>
@@ -1253,73 +1252,73 @@
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
     </row>
-    <row r="3" spans="1:24" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="53"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54"/>
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1327,180 +1326,180 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15">
-        <v>500.79290900000001</v>
-      </c>
-      <c r="C4" s="15">
-        <v>452.44966199999999</v>
-      </c>
-      <c r="D4" s="15">
-        <v>173.129302</v>
-      </c>
-      <c r="E4" s="15">
-        <v>52.462271000000001</v>
-      </c>
-      <c r="F4" s="15">
-        <v>55.138032000000003</v>
-      </c>
-      <c r="G4" s="15">
-        <v>29.952321999999999</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="B4" s="10">
+        <v>472.91723643699999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>443.80402508200001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>165.201892977</v>
+      </c>
+      <c r="E4" s="10">
+        <v>46.887461389999999</v>
+      </c>
+      <c r="F4" s="10">
+        <v>65.534933945999995</v>
+      </c>
+      <c r="G4" s="10">
+        <v>26.735090326000002</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="15">
-        <v>257.39861400000001</v>
-      </c>
-      <c r="J4" s="15">
-        <v>31.405045000000001</v>
-      </c>
-      <c r="K4" s="15">
-        <v>9.0802969999999998</v>
-      </c>
-      <c r="L4" s="15">
-        <v>90.367208000000005</v>
+      <c r="I4" s="10">
+        <v>227.77737672500001</v>
+      </c>
+      <c r="J4" s="10">
+        <v>31.178375516999999</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8.2003758280000021</v>
+      </c>
+      <c r="L4" s="10">
+        <v>85.865096430999998</v>
       </c>
       <c r="N4">
-        <v>40.1</v>
+        <v>37.9</v>
       </c>
       <c r="O4">
-        <v>36.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="P4">
-        <v>43.4</v>
+        <v>41.7</v>
       </c>
       <c r="Q4">
-        <v>19.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R4">
-        <v>9.8000000000000007</v>
+        <v>10.6</v>
       </c>
       <c r="S4">
-        <v>43.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T4">
         <v>100</v>
       </c>
       <c r="U4">
+        <v>42.4</v>
+      </c>
+      <c r="V4">
+        <v>34.5</v>
+      </c>
+      <c r="W4">
+        <v>48.6</v>
+      </c>
+      <c r="X4">
         <v>43.5</v>
-      </c>
-      <c r="V4">
-        <v>35.9</v>
-      </c>
-      <c r="W4">
-        <v>54.8</v>
-      </c>
-      <c r="X4">
-        <v>46.2</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15">
-        <v>50.708317000000001</v>
-      </c>
-      <c r="C5" s="15">
-        <v>50.512197999999998</v>
-      </c>
-      <c r="D5" s="15">
-        <v>13.792429</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5.5775949999999996</v>
-      </c>
-      <c r="F5" s="15">
-        <v>2.0353159999999999</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2.0660180000000001</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>36.346511999999997</v>
-      </c>
-      <c r="J5" s="15">
-        <v>2.4387889999999999</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1.543498</v>
-      </c>
-      <c r="L5" s="15">
-        <v>18.356707</v>
+      <c r="B5" s="10">
+        <v>47.526652802999998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>48.373309597000002</v>
+      </c>
+      <c r="D5" s="10">
+        <v>13.696265005000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5.3215203980000005</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2.2521791339999999</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.7108771420000002</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>33.056181934000001</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2.1742208860000001</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1.331500677</v>
+      </c>
+      <c r="L5" s="10">
+        <v>17.981365516</v>
       </c>
       <c r="N5">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="O5">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="P5">
         <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0.4</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="V5">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W5">
-        <v>9.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="X5">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15">
-        <v>6.6458665999999997</v>
-      </c>
-      <c r="C6" s="15">
-        <v>5.1867939999999999</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1.8044214000000001</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2.1654677000000002</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1.0767142999999999</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>2.4098201000000001</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.59102869999999996</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1.4940161999999999</v>
+      <c r="B6" s="10">
+        <v>5.7062339550000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4.5685886739999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.7110425890000003</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.7068286109999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.0595975470000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2.0148812249999999</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.48235817600000003</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.2193162529999999</v>
       </c>
       <c r="N6">
         <v>0.5</v>
@@ -1509,13 +1508,13 @@
         <v>0.4</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1530,66 +1529,66 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="X6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15">
-        <v>10.433253000000001</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1.5197639999999999</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1.562532</v>
-      </c>
-      <c r="E7" s="15">
-        <v>3.278308</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1.131791</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>5.1406910000000003</v>
-      </c>
-      <c r="J7" s="15">
-        <v>2.1657220000000001</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>2.8695789999999999</v>
+      <c r="B7" s="10">
+        <v>10.346021267000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.249411759</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.6606103189999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.8176836749999996</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.92369261700000005</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4.9365359710000005</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.106774519</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2.43435961</v>
       </c>
       <c r="N7">
         <v>0.8</v>
       </c>
       <c r="O7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Q7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1598,54 +1597,54 @@
         <v>0.9</v>
       </c>
       <c r="V7">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15">
-        <v>6.9092361999999996</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1.5713603</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.28073300000000001</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.45117309999999999</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>7.530087</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <v>3.9865927000000001</v>
+      <c r="B8" s="10">
+        <v>6.727277011</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.3056029410000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.34729895</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.36821739399999998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6.4196909980000001</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3.330948196</v>
       </c>
       <c r="N8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O8">
         <v>0.1</v>
@@ -1654,7 +1653,7 @@
         <v>0.1</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1666,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1675,45 +1674,45 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15">
-        <v>7.7065451999999999</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.27958739999999999</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.0735063</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1.4180245</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.5595926</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <v>3.4715688</v>
+      <c r="B9" s="10">
+        <v>7.7044850050000004</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.34588169000000002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.90454192600000005</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.1948347159999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.49888608899999998</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2.833262731</v>
       </c>
       <c r="N9">
         <v>0.6</v>
@@ -1725,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1746,176 +1745,176 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15">
-        <v>5.7358738000000002</v>
-      </c>
-      <c r="C10" s="15">
-        <v>7.3441852000000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.41860710000000001</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1.8128754</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1.9216565999999999</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>8.5365205999999993</v>
-      </c>
-      <c r="J10" s="15">
-        <v>2.1156812</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1.0767142999999999</v>
+      <c r="B10" s="10">
+        <v>9.8763065460000004</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6.2449078250000003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.80073446400000003</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.47954787</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.7951928719999999</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>7.8361724319999997</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2.3453558499999998</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2.0595975470000001</v>
       </c>
       <c r="N10">
+        <v>0.8</v>
+      </c>
+      <c r="O10">
         <v>0.5</v>
       </c>
-      <c r="O10">
-        <v>0.6</v>
-      </c>
       <c r="P10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V10">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="19">
-        <v>1249.7917199999999</v>
-      </c>
-      <c r="C12" s="19">
-        <v>1233.6079400000001</v>
-      </c>
-      <c r="D12" s="19">
-        <v>398.88195999999999</v>
-      </c>
-      <c r="E12" s="19">
-        <v>268.87756000000002</v>
-      </c>
-      <c r="F12" s="19">
-        <v>565.28269</v>
-      </c>
-      <c r="G12" s="19">
-        <v>69.503709999999998</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="B12" s="34">
+        <v>1246.7857935899999</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1242.608455991</v>
+      </c>
+      <c r="D12" s="34">
+        <v>396.13110921700002</v>
+      </c>
+      <c r="E12" s="34">
+        <v>269.09342045300002</v>
+      </c>
+      <c r="F12" s="34">
+        <v>616.13817718200005</v>
+      </c>
+      <c r="G12" s="34">
+        <v>65.643769707000004</v>
+      </c>
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="19">
-        <v>592.27058999999997</v>
-      </c>
-      <c r="J12" s="19">
-        <v>87.510440000000003</v>
-      </c>
-      <c r="K12" s="19">
-        <v>16.556509999999999</v>
-      </c>
-      <c r="L12" s="19">
-        <v>195.67126999999999</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-    </row>
-    <row r="13" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-    </row>
-    <row r="14" spans="1:24" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="I12" s="34">
+        <v>536.94859835399996</v>
+      </c>
+      <c r="J12" s="34">
+        <v>90.459641865999998</v>
+      </c>
+      <c r="K12" s="34">
+        <v>16.884204661000005</v>
+      </c>
+      <c r="L12" s="34">
+        <v>197.352419156</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+    </row>
+    <row r="14" spans="1:24" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -1923,7 +1922,7 @@
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="46" t="s">
         <v>46</v>
       </c>
@@ -1931,38 +1930,38 @@
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="28"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="46" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1970,263 +1969,263 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <f t="shared" ref="B19:B25" si="0">+B4+C4+I4+K4+L4</f>
-        <v>1310.08869</v>
-      </c>
-      <c r="C19" s="15">
+        <v>1238.5641105029999</v>
+      </c>
+      <c r="C19" s="13">
         <f>+D4</f>
-        <v>173.129302</v>
-      </c>
-      <c r="D19" s="15">
+        <v>165.201892977</v>
+      </c>
+      <c r="D19" s="13">
         <f>+E4+F4+J4</f>
-        <v>139.005348</v>
-      </c>
-      <c r="F19" s="14">
+        <v>143.600770853</v>
+      </c>
+      <c r="F19" s="12">
         <f>+B19/B$27*100</f>
-        <v>84.011654660595596</v>
-      </c>
-      <c r="G19" s="14">
+        <v>83.875495674710052</v>
+      </c>
+      <c r="G19" s="12">
         <f>+C19/C$27*100</f>
-        <v>90.649297228580949</v>
-      </c>
-      <c r="H19" s="14">
+        <v>89.097084262367375</v>
+      </c>
+      <c r="H19" s="12">
         <f>+D19/D$27*100</f>
-        <v>84.885605896182824</v>
+        <v>85.662187112379385</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15">
-        <f t="shared" si="0"/>
-        <v>157.467232</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="13">
+        <f t="shared" si="0"/>
+        <v>148.26901052700001</v>
+      </c>
+      <c r="C20" s="13">
         <f t="shared" ref="C20:C25" si="1">+D5</f>
-        <v>13.792429</v>
-      </c>
-      <c r="D20" s="15">
+        <v>13.696265005000001</v>
+      </c>
+      <c r="D20" s="13">
         <f t="shared" ref="D20:D25" si="2">+E5+F5+J5</f>
-        <v>10.0517</v>
-      </c>
-      <c r="F20" s="14">
+        <v>9.7479204180000014</v>
+      </c>
+      <c r="F20" s="12">
         <f t="shared" ref="F20:H25" si="3">+B20/B$27*100</f>
-        <v>10.097852776016172</v>
-      </c>
-      <c r="G20" s="14">
+        <v>10.040769505343103</v>
+      </c>
+      <c r="G20" s="12">
         <f t="shared" si="3"/>
-        <v>7.2216198037065933</v>
-      </c>
-      <c r="H20" s="14">
+        <v>7.3867027504345417</v>
+      </c>
+      <c r="H20" s="12">
         <f t="shared" si="3"/>
-        <v>6.1382145152189471</v>
+        <v>5.8149282754066416</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="15">
-        <f t="shared" si="0"/>
-        <v>16.327525600000001</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="13">
+        <f t="shared" si="0"/>
+        <v>13.991378283</v>
+      </c>
+      <c r="C21" s="13">
         <f t="shared" si="1"/>
-        <v>1.8044214000000001</v>
-      </c>
-      <c r="D21" s="15">
+        <v>2.7110425890000003</v>
+      </c>
+      <c r="D21" s="13">
         <f t="shared" si="2"/>
-        <v>3.2421820000000001</v>
-      </c>
-      <c r="F21" s="14">
+        <v>3.7664261579999998</v>
+      </c>
+      <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>1.0470302145492409</v>
-      </c>
-      <c r="G21" s="14">
+        <v>0.94749539301797503</v>
+      </c>
+      <c r="G21" s="12">
         <f t="shared" si="3"/>
-        <v>0.94478248294567813</v>
-      </c>
-      <c r="H21" s="14">
+        <v>1.4621260424941289</v>
+      </c>
+      <c r="H21" s="12">
         <f t="shared" si="3"/>
-        <v>1.9798848566293856</v>
+        <v>2.2467867015967053</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15">
-        <f t="shared" si="0"/>
-        <v>19.963287000000001</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>19.966328607000005</v>
+      </c>
+      <c r="C22" s="13">
         <f t="shared" si="1"/>
-        <v>1.562532</v>
-      </c>
-      <c r="D22" s="15">
+        <v>2.6606103189999999</v>
+      </c>
+      <c r="D22" s="13">
         <f t="shared" si="2"/>
-        <v>5.4440299999999997</v>
-      </c>
-      <c r="F22" s="14">
+        <v>4.9244581939999996</v>
+      </c>
+      <c r="F22" s="12">
         <f t="shared" si="3"/>
-        <v>1.2801795680980634</v>
-      </c>
-      <c r="G22" s="14">
+        <v>1.3521187111066484</v>
+      </c>
+      <c r="G22" s="12">
         <f t="shared" si="3"/>
-        <v>0.81813087710114529</v>
-      </c>
-      <c r="H22" s="14">
+        <v>1.4349267887279624</v>
+      </c>
+      <c r="H22" s="12">
         <f t="shared" si="3"/>
-        <v>3.3244748616937834</v>
+        <v>2.937587707473682</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15">
-        <f t="shared" si="0"/>
-        <v>19.997276199999998</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="13">
+        <f t="shared" si="0"/>
+        <v>17.783519146</v>
+      </c>
+      <c r="C23" s="13">
         <f t="shared" si="1"/>
-        <v>0.28073300000000001</v>
-      </c>
-      <c r="D23" s="15">
+        <v>0.34729895</v>
+      </c>
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
-        <v>0.45117309999999999</v>
-      </c>
-      <c r="F23" s="14">
+        <v>0.36821739399999998</v>
+      </c>
+      <c r="F23" s="12">
         <f t="shared" si="3"/>
-        <v>1.2823591830770995</v>
-      </c>
-      <c r="G23" s="14">
+        <v>1.2042989705278027</v>
+      </c>
+      <c r="G23" s="12">
         <f t="shared" si="3"/>
-        <v>0.14698984438157797</v>
-      </c>
-      <c r="H23" s="14">
+        <v>0.1873061092386499</v>
+      </c>
+      <c r="H23" s="12">
         <f t="shared" si="3"/>
-        <v>0.27551531296162135</v>
+        <v>0.21965277146840442</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="15">
-        <f t="shared" si="0"/>
-        <v>12.875725899999999</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="13">
+        <f t="shared" si="0"/>
+        <v>12.078464142</v>
+      </c>
+      <c r="C24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <f t="shared" si="2"/>
-        <v>1.6330989</v>
-      </c>
-      <c r="F24" s="14">
+        <v>1.403428015</v>
+      </c>
+      <c r="F24" s="12">
         <f t="shared" si="3"/>
-        <v>0.82567771638062637</v>
-      </c>
-      <c r="G24" s="14">
+        <v>0.81795294915176509</v>
+      </c>
+      <c r="G24" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f t="shared" si="3"/>
-        <v>0.99727522436683302</v>
+        <v>0.83718710216919168</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15">
-        <f t="shared" si="0"/>
-        <v>22.6932939</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="13">
+        <f t="shared" si="0"/>
+        <v>26.016984349999998</v>
+      </c>
+      <c r="C25" s="13">
         <f t="shared" si="1"/>
-        <v>0.41860710000000001</v>
-      </c>
-      <c r="D25" s="15">
+        <v>0.80073446400000003</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
-        <v>3.9285566000000003</v>
-      </c>
-      <c r="F25" s="14">
+        <v>3.82490372</v>
+      </c>
+      <c r="F25" s="12">
         <f t="shared" si="3"/>
-        <v>1.4552458812831983</v>
-      </c>
-      <c r="G25" s="14">
+        <v>1.7618687961426591</v>
+      </c>
+      <c r="G25" s="12">
         <f t="shared" si="3"/>
-        <v>0.21917976328405869</v>
-      </c>
-      <c r="H25" s="14">
+        <v>0.43185404673735922</v>
+      </c>
+      <c r="H25" s="12">
         <f t="shared" si="3"/>
-        <v>2.3990293329465855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+        <v>2.2816703295059715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <f>+SUM(B19:B25)</f>
-        <v>1559.4130306</v>
-      </c>
-      <c r="C27" s="19">
+        <v>1476.6697955579998</v>
+      </c>
+      <c r="C27" s="17">
         <f>+SUM(C19:C25)</f>
-        <v>190.98802449999999</v>
-      </c>
-      <c r="D27" s="19">
+        <v>185.41784430399997</v>
+      </c>
+      <c r="D27" s="17">
         <f>+SUM(D19:D25)</f>
-        <v>163.75608860000003</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="29" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
+        <v>167.63612475200003</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="29" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="46" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2256,7 @@
       <c r="X32" s="46"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2328,130 +2327,130 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15">
-        <v>500.79290900000001</v>
-      </c>
-      <c r="C34" s="15">
-        <v>452.44966199999999</v>
-      </c>
-      <c r="D34" s="15">
-        <v>173.129302</v>
-      </c>
-      <c r="E34" s="15">
-        <v>52.462271000000001</v>
-      </c>
-      <c r="F34" s="15">
-        <v>55.138032000000003</v>
-      </c>
-      <c r="G34" s="15">
-        <v>29.952321999999999</v>
-      </c>
-      <c r="H34" s="15">
+      <c r="B34" s="10">
+        <v>468.24612125700003</v>
+      </c>
+      <c r="C34" s="10">
+        <v>441.34446260100003</v>
+      </c>
+      <c r="D34" s="10">
+        <v>164.51495911500001</v>
+      </c>
+      <c r="E34" s="10">
+        <v>46.887461389999999</v>
+      </c>
+      <c r="F34" s="10">
+        <v>63.475336399</v>
+      </c>
+      <c r="G34" s="10">
+        <v>26.735090326000002</v>
+      </c>
+      <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="I34" s="15">
-        <v>257.39861400000001</v>
-      </c>
-      <c r="J34" s="15">
-        <v>31.405045000000001</v>
-      </c>
-      <c r="K34" s="15">
-        <v>9.0802969999999998</v>
-      </c>
-      <c r="L34" s="15">
-        <v>90.367208000000005</v>
+      <c r="I34" s="10">
+        <v>227.77737672500001</v>
+      </c>
+      <c r="J34" s="10">
+        <v>31.178375516999999</v>
+      </c>
+      <c r="K34" s="10">
+        <v>8.2003758280000021</v>
+      </c>
+      <c r="L34" s="10">
+        <v>85.865096430999998</v>
       </c>
       <c r="N34">
-        <v>40.1</v>
+        <v>37.6</v>
       </c>
       <c r="O34">
-        <v>36.700000000000003</v>
+        <v>35.5</v>
       </c>
       <c r="P34">
-        <v>43.4</v>
+        <v>41.5</v>
       </c>
       <c r="Q34">
-        <v>19.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R34">
-        <v>9.8000000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="S34">
-        <v>43.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="T34">
         <v>100</v>
       </c>
       <c r="U34">
+        <v>42.4</v>
+      </c>
+      <c r="V34">
+        <v>34.5</v>
+      </c>
+      <c r="W34">
+        <v>48.6</v>
+      </c>
+      <c r="X34">
         <v>43.5</v>
-      </c>
-      <c r="V34">
-        <v>35.9</v>
-      </c>
-      <c r="W34">
-        <v>54.8</v>
-      </c>
-      <c r="X34">
-        <v>46.2</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="15">
-        <v>66.276651000000001</v>
-      </c>
-      <c r="C35" s="15">
-        <v>63.731346000000002</v>
-      </c>
-      <c r="D35" s="15">
-        <v>15.358917</v>
-      </c>
-      <c r="E35" s="15">
-        <v>11.840865000000001</v>
-      </c>
-      <c r="F35" s="15">
-        <v>3.1120299999999999</v>
-      </c>
-      <c r="G35" s="15">
-        <v>3.9876749999999999</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <v>50.886499000000001</v>
-      </c>
-      <c r="J35" s="15">
-        <v>6.7705310000000001</v>
-      </c>
-      <c r="K35" s="15">
-        <v>2.1345269999999998</v>
-      </c>
-      <c r="L35" s="15">
-        <v>22.483431</v>
+      <c r="B35" s="10">
+        <v>63.572141180999999</v>
+      </c>
+      <c r="C35" s="10">
+        <v>60.680580059</v>
+      </c>
+      <c r="D35" s="10">
+        <v>15.668247394000002</v>
+      </c>
+      <c r="E35" s="10">
+        <v>10.664230522</v>
+      </c>
+      <c r="F35" s="10">
+        <v>4.3117766809999996</v>
+      </c>
+      <c r="G35" s="10">
+        <v>3.5060700140000001</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>46.424676902999998</v>
+      </c>
+      <c r="J35" s="10">
+        <v>6.4952317610000003</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1.8138588530000002</v>
+      </c>
+      <c r="L35" s="10">
+        <v>22.699935887999999</v>
       </c>
       <c r="N35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>0.7</v>
+      </c>
+      <c r="S35">
         <v>5.3</v>
-      </c>
-      <c r="O35">
-        <v>5.2</v>
-      </c>
-      <c r="P35">
-        <v>3.9</v>
-      </c>
-      <c r="Q35">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R35">
-        <v>0.6</v>
-      </c>
-      <c r="S35">
-        <v>5.7</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2460,73 +2459,73 @@
         <v>8.6</v>
       </c>
       <c r="V35">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="W35">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="X35">
         <v>11.5</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19">
-        <v>1249.7917199999999</v>
-      </c>
-      <c r="C37" s="19">
-        <v>1233.6079400000001</v>
-      </c>
-      <c r="D37" s="19">
-        <v>398.88195999999999</v>
-      </c>
-      <c r="E37" s="19">
-        <v>268.87756000000002</v>
-      </c>
-      <c r="F37" s="19">
-        <v>565.28269</v>
-      </c>
-      <c r="G37" s="19">
-        <v>69.503709999999998</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="B37" s="34">
+        <v>1246.7857935899999</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1242.608455991</v>
+      </c>
+      <c r="D37" s="34">
+        <v>396.13110921700002</v>
+      </c>
+      <c r="E37" s="34">
+        <v>269.09342045300002</v>
+      </c>
+      <c r="F37" s="34">
+        <v>616.13817718200005</v>
+      </c>
+      <c r="G37" s="34">
+        <v>65.643769707000004</v>
+      </c>
+      <c r="H37" s="34">
         <v>1</v>
       </c>
-      <c r="I37" s="19">
-        <v>592.27058999999997</v>
-      </c>
-      <c r="J37" s="19">
-        <v>87.510440000000003</v>
-      </c>
-      <c r="K37" s="19">
-        <v>16.556509999999999</v>
-      </c>
-      <c r="L37" s="19">
-        <v>195.67126999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40" t="s">
+      <c r="I37" s="34">
+        <v>536.94859835399996</v>
+      </c>
+      <c r="J37" s="34">
+        <v>90.459641865999998</v>
+      </c>
+      <c r="K37" s="34">
+        <v>16.884204661000005</v>
+      </c>
+      <c r="L37" s="34">
+        <v>197.352419156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="46" t="s">
@@ -2534,7 +2533,7 @@
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="46" t="s">
         <v>46</v>
       </c>
@@ -2542,13 +2541,13 @@
       <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="28"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="46" t="s">
         <v>5</v>
       </c>
@@ -2556,117 +2555,108 @@
       <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="53"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="13">
         <f>+B34+C34+I34+K34+L34</f>
-        <v>1310.08869</v>
-      </c>
-      <c r="C44" s="15">
+        <v>1231.433432842</v>
+      </c>
+      <c r="C44" s="13">
         <f>+D34</f>
-        <v>173.129302</v>
-      </c>
-      <c r="D44" s="15">
+        <v>164.51495911500001</v>
+      </c>
+      <c r="D44" s="13">
         <f>+E34+F34+J34</f>
-        <v>139.005348</v>
-      </c>
-      <c r="F44" s="14">
+        <v>141.54117330599999</v>
+      </c>
+      <c r="F44" s="12">
         <f t="shared" ref="F44:H45" si="4">+B44/B$47*100</f>
-        <v>86.440201974405483</v>
-      </c>
-      <c r="G44" s="14">
+        <v>86.317971149231468</v>
+      </c>
+      <c r="G44" s="12">
         <f t="shared" si="4"/>
-        <v>91.85152415281722</v>
-      </c>
-      <c r="H44" s="14">
+        <v>91.304268750918595</v>
+      </c>
+      <c r="H44" s="12">
         <f t="shared" si="4"/>
-        <v>86.484420020524766</v>
+        <v>86.828463756221907</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <f>+B35+C35+I35+K35+L35</f>
-        <v>205.51245399999999</v>
-      </c>
-      <c r="C45" s="15">
+        <v>195.191192884</v>
+      </c>
+      <c r="C45" s="13">
         <f>+D35</f>
-        <v>15.358917</v>
-      </c>
-      <c r="D45" s="15">
+        <v>15.668247394000002</v>
+      </c>
+      <c r="D45" s="13">
         <f>+E35+F35+J35</f>
-        <v>21.723426000000003</v>
-      </c>
-      <c r="F45" s="14">
+        <v>21.471238964000001</v>
+      </c>
+      <c r="F45" s="12">
         <f t="shared" si="4"/>
-        <v>13.559798025594521</v>
-      </c>
-      <c r="G45" s="14">
+        <v>13.682028850768537</v>
+      </c>
+      <c r="G45" s="12">
         <f t="shared" si="4"/>
-        <v>8.1484758471827892</v>
-      </c>
-      <c r="H45" s="14">
+        <v>8.69573124908141</v>
+      </c>
+      <c r="H45" s="12">
         <f t="shared" si="4"/>
-        <v>13.515579979475239</v>
+        <v>13.171536243778084</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="17">
         <f>+SUM(B44:B45)</f>
-        <v>1515.601144</v>
-      </c>
-      <c r="C47" s="19">
+        <v>1426.624625726</v>
+      </c>
+      <c r="C47" s="17">
         <f>+SUM(C44:C45)</f>
-        <v>188.48821899999999</v>
-      </c>
-      <c r="D47" s="19">
+        <v>180.183206509</v>
+      </c>
+      <c r="D47" s="17">
         <f>+SUM(D44:D45)</f>
-        <v>160.72877399999999</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+        <v>163.01241227</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="B2:L2"/>
@@ -2677,6 +2667,15 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2686,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA2749-C271-458F-9189-F6CED7A362A0}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2727,7 +2726,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="46" t="s">
         <v>5</v>
       </c>
@@ -2738,346 +2737,353 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15">
-        <v>6.1077019999999997</v>
-      </c>
-      <c r="C4" s="15">
-        <v>220.31625399999999</v>
-      </c>
-      <c r="D4" s="15">
-        <v>202.133464</v>
-      </c>
-      <c r="E4" s="15">
-        <v>99.94538</v>
-      </c>
-      <c r="F4" s="15">
-        <v>18.323846</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="B4" s="13">
+        <v>7.5488115120000003</v>
+      </c>
+      <c r="C4" s="13">
+        <v>202.03080655700001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>193.26014585799999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>98.505984882000007</v>
+      </c>
+      <c r="F4" s="13">
+        <v>15.899187339000001</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
         <f t="shared" ref="H4:L10" si="0">+B4/B$12*100</f>
-        <v>21.172378888985179</v>
-      </c>
-      <c r="I4" s="14">
-        <f t="shared" si="0"/>
-        <v>42.122621203441106</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>31.248686180139369</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="0"/>
-        <v>43.387300455859027</v>
-      </c>
-      <c r="L4" s="14">
-        <f t="shared" si="0"/>
-        <v>49.200765459075406</v>
+        <v>23.192073082679936</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9465412537294</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>29.459963887802548</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="0"/>
+        <v>40.907185171699098</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="0"/>
+        <v>42.829839898850835</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>28.855725</v>
-      </c>
-      <c r="D5" s="15">
-        <v>32.243200999999999</v>
-      </c>
-      <c r="E5" s="15">
-        <v>14.898593999999999</v>
-      </c>
-      <c r="F5" s="15">
-        <v>2.5744159999999998</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <f t="shared" si="0"/>
-        <v>5.5169727682718577</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="0"/>
-        <v>4.9846158550578039</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="0"/>
-        <v>6.4676303621824101</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" si="0"/>
-        <v>6.9124810266409726</v>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>27.981669366999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>28.999215861</v>
+      </c>
+      <c r="E5" s="13">
+        <v>14.209564708</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.244907022</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5326755793637803</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>4.4205485215113551</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>5.9008931834517648</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0474165307944245</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2.6677430000000002</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.62107869999999998</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1.0767142999999999</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.51005010214603419</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>9.6015241639894527E-2</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.46741256913746221</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3.5419557230000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.510581222</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2.0595975470000001</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.70033319580785547</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7831382642969502E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.85530171933443278</v>
+      </c>
+      <c r="L6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2.4606075999999999</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.62107869999999998</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.25812059999999998</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="0"/>
-        <v>0.47044754975322128</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="0"/>
-        <v>9.6015241639894527E-2</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="0"/>
-        <v>0.11205276347987876</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3.18903888</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.510581222</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.21219780099999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.6305527129780848</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7831382642969502E-2</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>8.812068372223876E-2</v>
+      </c>
+      <c r="L7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.45117309999999999</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.62107869999999998</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1.0735063</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>8.6260515252234896E-2</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>9.6015241639894527E-2</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8824369995873051</v>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.36821739399999998</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.510581222</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.90454192600000005</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.2805784278309069E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7831382642969502E-2</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.4366896902552551</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.5595926</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.62107869999999998</v>
-      </c>
-      <c r="E9" s="15">
-        <v>6.7592739999999996</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.10698941494370516</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="0"/>
-        <v>9.6015241639894527E-2</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="0"/>
-        <v>2.9342692168610101</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.49888608899999998</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.510581222</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5.7643064180000003</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>9.8642252014806503E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7831382642969502E-2</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>2.3937789192200398</v>
+      </c>
+      <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.81877699999999998</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.85157850000000002</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1.0767142999999999</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.12657827664060597</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.36967884099544923</v>
-      </c>
-      <c r="L10" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8910506964931137</v>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.2749235249999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1.6289455209999999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.0595975470000001</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.19434529990372129</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.67646220828084103</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5482227684490031</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="19">
-        <v>28.8475</v>
-      </c>
-      <c r="C12" s="19">
-        <v>523.03548000000001</v>
-      </c>
-      <c r="D12" s="19">
-        <v>646.85428000000002</v>
-      </c>
-      <c r="E12" s="19">
-        <v>230.3563</v>
-      </c>
-      <c r="F12" s="19">
-        <v>37.243009999999998</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="14" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="B12" s="17">
+        <v>32.549101950000001</v>
+      </c>
+      <c r="C12" s="17">
+        <v>505.75293934400003</v>
+      </c>
+      <c r="D12" s="17">
+        <v>656.009445884</v>
+      </c>
+      <c r="E12" s="17">
+        <v>240.80362525199999</v>
+      </c>
+      <c r="F12" s="17">
+        <v>37.121752909999998</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3108,7 +3114,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="46" t="s">
         <v>5</v>
       </c>
@@ -3119,145 +3125,148 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15">
-        <v>6.1077019999999997</v>
-      </c>
-      <c r="C19" s="15">
-        <v>220.31625399999999</v>
-      </c>
-      <c r="D19" s="15">
-        <v>202.133464</v>
-      </c>
-      <c r="E19" s="15">
-        <v>99.94538</v>
-      </c>
-      <c r="F19" s="15">
-        <v>18.323846</v>
-      </c>
-      <c r="H19" s="14">
-        <v>21.2</v>
-      </c>
-      <c r="I19" s="14">
-        <v>42.1</v>
-      </c>
-      <c r="J19" s="14">
-        <v>31.2</v>
-      </c>
-      <c r="K19" s="14">
-        <v>43.4</v>
-      </c>
-      <c r="L19" s="14">
-        <v>49.2</v>
+      <c r="B19" s="13">
+        <v>7.5488115120000003</v>
+      </c>
+      <c r="C19" s="13">
+        <v>198.29077092700001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>193.26014585799999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>96.446387334999997</v>
+      </c>
+      <c r="F19" s="13">
+        <v>14.450864121</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19">
+        <v>23.2</v>
+      </c>
+      <c r="I19">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J19">
+        <v>29.5</v>
+      </c>
+      <c r="K19">
+        <v>40.1</v>
+      </c>
+      <c r="L19">
+        <v>38.9</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="15">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
-        <v>32.841411999999998</v>
-      </c>
-      <c r="D20" s="15">
-        <v>33.416016999999997</v>
-      </c>
-      <c r="E20" s="15">
-        <v>20.372713000000001</v>
-      </c>
-      <c r="F20" s="15">
-        <v>4.7246360000000003</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="J20" s="14">
-        <v>5.2</v>
-      </c>
-      <c r="K20" s="14">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L20" s="14">
-        <v>12.7</v>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>31.460572359</v>
+      </c>
+      <c r="D20" s="13">
+        <v>30.565190759</v>
+      </c>
+      <c r="E20" s="13">
+        <v>21.041349264000001</v>
+      </c>
+      <c r="F20" s="13">
+        <v>5.2090464949999999</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>6.2</v>
+      </c>
+      <c r="J20">
+        <v>4.7</v>
+      </c>
+      <c r="K20">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="19">
-        <v>28.8475</v>
-      </c>
-      <c r="C22" s="19">
-        <v>523.03548000000001</v>
-      </c>
-      <c r="D22" s="19">
-        <v>646.85428000000002</v>
-      </c>
-      <c r="E22" s="19">
-        <v>230.3563</v>
-      </c>
-      <c r="F22" s="19">
-        <v>37.243009999999998</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="17">
+        <v>32.549101950000001</v>
+      </c>
+      <c r="C22" s="17">
+        <v>505.75293934400003</v>
+      </c>
+      <c r="D22" s="17">
+        <v>656.009445884</v>
+      </c>
+      <c r="E22" s="17">
+        <v>240.80362525199999</v>
+      </c>
+      <c r="F22" s="17">
+        <v>37.121752909999998</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3280,7 +3289,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3325,177 +3334,178 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="48"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="34">
-        <v>392.35070000000002</v>
-      </c>
-      <c r="C4" s="34">
-        <v>44.159300000000002</v>
-      </c>
-      <c r="D4" s="34">
-        <v>173.9041</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
-        <v>27.5</v>
-      </c>
-      <c r="G4" s="27">
-        <v>49.4</v>
-      </c>
-      <c r="H4" s="27">
-        <v>45.7</v>
+      <c r="B4" s="10">
+        <v>346.13955437499999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>36.823799983999997</v>
+      </c>
+      <c r="D4" s="10">
+        <v>150.10195710799999</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4">
+        <v>25.3</v>
+      </c>
+      <c r="G4">
+        <v>45.5</v>
+      </c>
+      <c r="H4">
+        <v>41.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="35">
-        <v>62.4893</v>
-      </c>
-      <c r="C5" s="35">
-        <v>3.0975600000000001</v>
-      </c>
-      <c r="D5" s="35">
-        <v>33.255409999999998</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G5" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="28">
-        <v>8.6999999999999993</v>
+      <c r="B5" s="10">
+        <v>85.464313138999998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4.9513233439999995</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45.093517679000001</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5">
+        <v>6.3</v>
+      </c>
+      <c r="G5">
+        <v>6.1</v>
+      </c>
+      <c r="H5">
+        <v>12.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="35">
-        <v>12.54167</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="10">
+        <v>13.920807519</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="35">
-        <v>6.7267099999999997</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="28">
-        <v>1.8</v>
+      <c r="D6" s="10">
+        <v>7.0991709499999995</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="35">
-        <v>934.40072999999995</v>
-      </c>
-      <c r="C7" s="35">
-        <v>35.462449999999997</v>
-      </c>
-      <c r="D7" s="35">
-        <v>175.83077</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>65.5</v>
-      </c>
-      <c r="G7" s="28">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H7" s="28">
-        <v>46.2</v>
+      <c r="A7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>899.17591919000006</v>
+      </c>
+      <c r="C7" s="10">
+        <v>33.439384077</v>
+      </c>
+      <c r="D7" s="10">
+        <v>166.20135976099999</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7">
+        <v>65.8</v>
+      </c>
+      <c r="G7">
+        <v>41.3</v>
+      </c>
+      <c r="H7">
+        <v>46.3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="35">
-        <v>119.185951</v>
-      </c>
-      <c r="C8" s="35">
-        <v>4.6733169999999999</v>
-      </c>
-      <c r="D8" s="35">
-        <v>22.858196</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>8.4</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="B8" s="10">
+        <v>119.879478975</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4.22248</v>
+      </c>
+      <c r="D8" s="10">
+        <v>21.474672185999999</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G8">
         <v>5.2</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="36">
-        <v>1426.2354</v>
-      </c>
-      <c r="C10" s="36">
-        <v>89.409599999999998</v>
-      </c>
-      <c r="D10" s="36">
-        <v>380.45159999999998</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="34">
+        <v>1366.9991294450001</v>
+      </c>
+      <c r="C10" s="34">
+        <v>81.016002886999999</v>
+      </c>
+      <c r="D10" s="34">
+        <v>359.21199692900001</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3511,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6D078B-93C4-4F2B-8FAB-8CBBCA5D6A31}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3525,7 +3535,7 @@
     <col min="6" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
@@ -3539,331 +3549,333 @@
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="50"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
     </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
-        <v>433</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>96</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F13" si="0">+B4/B$15*100</f>
-        <v>30.343377715487037</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G13" si="1">+C4/C$15*100</f>
-        <v>37.5</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H13" si="2">+D4/D$15*100</f>
-        <v>25.263157894736842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <v>409.13329981300001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>29.948071471999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>93.169980527999996</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="12">
+        <f>+B4/B$15*100</f>
+        <v>29.929302148064103</v>
+      </c>
+      <c r="G4" s="12">
+        <f>+C4/C$15*100</f>
+        <v>37.427602468837627</v>
+      </c>
+      <c r="H4" s="12">
+        <f>+D4/D$15*100</f>
+        <v>25.937324288869863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
-        <v>413</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>83</v>
+      <c r="B5" s="13">
+        <v>407.32883212600001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>19.400654985999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>78.750362535999997</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>28.941836019621586</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>23.863636363636363</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="2"/>
-        <v>21.842105263157897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F13" si="0">+B5/B$15*100</f>
+        <v>29.797300038616335</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" ref="G5:G13" si="1">+C5/C$15*100</f>
+        <v>24.245968663790848</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H13" si="2">+D5/D$15*100</f>
+        <v>21.923088095402722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6">
-        <v>145</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>38</v>
+      <c r="B6" s="13">
+        <v>139.49614713299999</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.8470027470000003</v>
+      </c>
+      <c r="D6" s="13">
+        <v>35.840056629000003</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>10.161177295024528</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>10.204552740983475</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="H6" s="8">
+        <v>6.0575417068071031</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.977410814618187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
+      <c r="B7" s="13">
+        <v>37.980027065999998</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3.2485806780000002</v>
+      </c>
+      <c r="D7" s="13">
+        <v>16.323084168000001</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>3.0133146461107216</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7783504940065207</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="H7" s="8">
+        <v>4.0599137182442151</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
-        <v>4.4736842105263159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.544136695753604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="B8" s="13">
+        <v>58.113980820999998</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2.6626679549999999</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7.0104643040000001</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5038542396636299</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>4.2512083270012182</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>3.4090909090909087</v>
-      </c>
-      <c r="H8" s="8">
+        <v>3.3276692898047737</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="2"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.9516230983191944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+      <c r="B9" s="13">
+        <v>24.523378604000001</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2.104012285</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3.613769451</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8920812894183601</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>1.793957148601584</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="H9" s="8">
+        <v>2.6294893634856056</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="2"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.0060269372668749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10">
-        <v>207</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>89</v>
+      <c r="B10" s="13">
+        <v>188.03225156799999</v>
+      </c>
+      <c r="C10" s="13">
+        <v>12.511979353999999</v>
+      </c>
+      <c r="D10" s="13">
+        <v>75.935650758999998</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>14.505956552207428</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>13.755111288501029</v>
+      </c>
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>17.045454545454543</v>
-      </c>
-      <c r="H10" s="8">
+        <v>15.636846258953518</v>
+      </c>
+      <c r="H10" s="12">
         <f t="shared" si="2"/>
-        <v>23.421052631578949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21.139508537630782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
+      <c r="B11" s="13">
+        <v>27.235797348999998</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2.3311313130000002</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8.1066786159999999</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9621583742116329</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9923785438003678</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="H11" s="8">
+        <v>2.9133313698411865</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
-        <v>2.1052631578947367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.2567950640029215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49053959355290822</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="B12" s="13">
+        <v>6.0340712240000025</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.64277712600000003</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3.3373863309999998</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.44141002682641267</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>1.1363636363636365</v>
-      </c>
-      <c r="H12" s="8">
+        <v>0.80331071636725104</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
-        <v>1.0526315789473684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.92908543131415777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>74</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>5.1857042747021724</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="B13" s="13">
+        <v>69.121343741000004</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.3191249709999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>37.124563606999999</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>5.056429243598946</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="H13" s="8">
+        <v>2.8983264438678709</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
-        <v>9.7368421052631575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10.335001036821675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <f>+SUM(B4:B13)</f>
-        <v>1427</v>
-      </c>
-      <c r="C15" s="13">
+        <v>1366.9991294450001</v>
+      </c>
+      <c r="C15" s="11">
         <f>+SUM(C4:C13)</f>
-        <v>88</v>
-      </c>
-      <c r="D15" s="13">
+        <v>80.016002886999999</v>
+      </c>
+      <c r="D15" s="11">
         <f>+SUM(D4:D13)</f>
-        <v>380</v>
+        <v>359.21199692900007</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -3886,8 +3898,8 @@
         <v>4</v>
       </c>
       <c r="C20" s="50"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="50" t="s">
         <v>5</v>
       </c>
@@ -3896,23 +3908,23 @@
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="49"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3920,30 +3932,30 @@
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <f>+B4+B5+B10+B12+B13</f>
-        <v>1134</v>
-      </c>
-      <c r="C22">
-        <f>+C4+C5+C10+C12+C13</f>
-        <v>72</v>
-      </c>
-      <c r="D22">
-        <f>+D4+D5+D10+D12+D13</f>
-        <v>309</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8">
+      <c r="B22" t="e">
+        <f>+B4+B5+#REF!+B11+B12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" t="e">
+        <f>+C4+C5+#REF!+C11+C12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>+D4+D5+#REF!+D11+D12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="8" t="e">
         <f t="shared" ref="F22:H24" si="3">+B22/B$26*100</f>
-        <v>79.46741415557112</v>
-      </c>
-      <c r="G22" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="H22" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>81.315789473684205</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -3952,28 +3964,28 @@
       </c>
       <c r="B23">
         <f>+B6</f>
-        <v>145</v>
+        <v>139.49614713299999</v>
       </c>
       <c r="C23">
         <f>+C6</f>
-        <v>5</v>
+        <v>4.8470027470000003</v>
       </c>
       <c r="D23">
         <f>+D6</f>
-        <v>38</v>
+        <v>35.840056629000003</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="8">
+      <c r="F23" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>10.161177295024528</v>
-      </c>
-      <c r="G23" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="H23" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -3981,29 +3993,29 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <f>+B7+B8+B9+B11</f>
-        <v>148</v>
+        <f>+B7+B8+B9+B10</f>
+        <v>308.64963805899998</v>
       </c>
       <c r="C24">
-        <f>+C7+C8+C9+C11</f>
-        <v>11</v>
+        <f>+C7+C8+C9+C10</f>
+        <v>20.527240272</v>
       </c>
       <c r="D24">
-        <f>+D7+D8+D9+D11</f>
-        <v>33</v>
+        <f>+D7+D8+D9+D10</f>
+        <v>102.882968682</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="8">
+      <c r="F24" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>10.371408549404345</v>
-      </c>
-      <c r="G24" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-      <c r="H24" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="8" t="e">
         <f t="shared" si="3"/>
-        <v>8.6842105263157894</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -4015,22 +4027,22 @@
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11" t="e">
         <f>+B22+B23+B24</f>
-        <v>1427</v>
-      </c>
-      <c r="C26" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="11" t="e">
         <f>+C22+C23+C24</f>
-        <v>88</v>
-      </c>
-      <c r="D26" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="11" t="e">
         <f>+D22+D23+D24</f>
-        <v>380</v>
+        <v>#REF!</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4052,7 +4064,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4082,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
@@ -4090,17 +4102,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4108,13 +4120,13 @@
       <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>322.41744107300002</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <v>461.76051358400002</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="41"/>
       <c r="E4">
         <v>9.1</v>
       </c>
@@ -4126,13 +4138,13 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>1271.268050681</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>252.996695644</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="43"/>
       <c r="E5">
         <v>35.9</v>
       </c>
@@ -4144,13 +4156,13 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>478.342510377</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>235.37665085399999</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="43"/>
       <c r="E6">
         <v>13.5</v>
       </c>
@@ -4162,13 +4174,13 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>61.551661703000001</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>24.789474720000001</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7">
         <v>1.7</v>
       </c>
@@ -4180,10 +4192,10 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>30.155914872</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>36.586533281000001</v>
       </c>
       <c r="E8">
@@ -4197,13 +4209,13 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="33">
         <v>278.95867698799998</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>84.897727410000002</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="45"/>
       <c r="E9">
         <v>7.9</v>
       </c>
@@ -4215,13 +4227,13 @@
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>93.342315157000002</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>23.751210487999998</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="45"/>
       <c r="E10">
         <v>2.6</v>
       </c>
@@ -4233,13 +4245,13 @@
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>59.614771623000003</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>15.474625570000001</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="45"/>
       <c r="E11">
         <v>1.7</v>
       </c>
@@ -4251,13 +4263,13 @@
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>559.05326324600003</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>133.78150399699999</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="45"/>
       <c r="E12">
         <v>15.8</v>
       </c>
@@ -4269,10 +4281,10 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>575.68352093099998</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>152.95041516200001</v>
       </c>
       <c r="E13">
@@ -4286,10 +4298,10 @@
       <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>289.26607613099998</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>85.746964234000004</v>
       </c>
       <c r="E14">
@@ -4303,10 +4315,10 @@
       <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>441.25765889299998</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>136.061229126</v>
       </c>
       <c r="E15">
@@ -4317,22 +4329,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>3543.9523763779998</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>1135.0932137990001</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4350,7 +4362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4BAC9-2733-45D1-A7C3-FFF0284F0753}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -4388,13 +4400,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
@@ -4406,13 +4418,13 @@
       <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>7.2881504189999999</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>52.305704404000004</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="41"/>
       <c r="E4">
         <v>2.2000000000000002</v>
       </c>
@@ -4424,13 +4436,13 @@
       <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>12.50301035</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>21.511633739000001</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="43"/>
       <c r="E5">
         <v>3.8</v>
       </c>
@@ -4442,13 +4454,13 @@
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>2.2868702550000002</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>19.805413001999998</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="43"/>
       <c r="E6">
         <v>0.7</v>
       </c>
@@ -4460,13 +4472,13 @@
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>3.4664190389999998</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>18.592710278000002</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7">
         <v>1.1000000000000001</v>
       </c>
@@ -4478,10 +4490,10 @@
       <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>3.205005871</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>15.290340855</v>
       </c>
       <c r="E8">
@@ -4495,13 +4507,13 @@
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
         <v>12.703299546</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="45"/>
       <c r="E9">
         <v>0</v>
       </c>
@@ -4513,13 +4525,13 @@
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>4.7933505080000005</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>15.57471879</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="45"/>
       <c r="E10">
         <v>1.5</v>
       </c>
@@ -4528,26 +4540,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="34">
         <v>327.10998465699998</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>4351.9356055199996</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4570,6 +4582,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C67237C462054AB2A2EEBF6DF77606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35c831603d7ab223d2f5d2ab06f125ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d13d130-f367-41bf-8435-aab6481a31cc" xmlns:ns4="9840afb1-5d18-42a2-bcba-2c8e802c66c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8448abd0b4646354f8a217217672beb0" ns3:_="" ns4:_="">
     <xsd:import namespace="1d13d130-f367-41bf-8435-aab6481a31cc"/>
@@ -4796,14 +4816,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
   <ds:schemaRefs>
@@ -4813,6 +4825,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F7FF05-72FB-4B20-8B12-B01AA5623D12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4829,21 +4858,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F7FF05-72FB-4B20-8B12-B01AA5623D12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tables/3.Educación/Educación.xlsx
+++ b/tables/3.Educación/Educación.xlsx
@@ -496,6 +496,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,9 +514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,11 +522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B1" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,31 +857,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1063,31 +1063,31 @@
       <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
@@ -1189,71 +1189,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="25"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
     </row>
     <row r="3" spans="1:24" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
@@ -1914,37 +1914,37 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="53"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -2195,68 +2195,68 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="53"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="N32" s="46" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="N32" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46" t="s">
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2525,37 +2525,37 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="53"/>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="22" t="s">
         <v>43</v>
       </c>
@@ -2657,6 +2657,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="B2:L2"/>
@@ -2667,15 +2676,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2700,43 +2700,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -3088,43 +3088,43 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="55"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -3230,13 +3230,13 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -3305,35 +3305,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
@@ -3536,35 +3536,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="23"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
@@ -3879,35 +3879,35 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="48"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="23"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="22" t="s">
         <v>2</v>
       </c>
@@ -4077,31 +4077,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4375,31 +4375,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4573,23 +4573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C67237C462054AB2A2EEBF6DF77606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35c831603d7ab223d2f5d2ab06f125ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d13d130-f367-41bf-8435-aab6481a31cc" xmlns:ns4="9840afb1-5d18-42a2-bcba-2c8e802c66c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8448abd0b4646354f8a217217672beb0" ns3:_="" ns4:_="">
     <xsd:import namespace="1d13d130-f367-41bf-8435-aab6481a31cc"/>
@@ -4816,10 +4799,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
+    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4842,20 +4853,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
-    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tables/3.Educación/Educación.xlsx
+++ b/tables/3.Educación/Educación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/3.Educación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="814" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C828CF-4F50-4A89-8F51-8A1F022793B2}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48119075-4EC9-4DE7-8A9A-F21FD9761071}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="93">
   <si>
     <t>Ninguna</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Inconvenientes para la inscripción en el sistema educativo</t>
+  </si>
+  <si>
+    <t>población con hijes menores de 18 años</t>
+  </si>
+  <si>
+    <t>Inconvenientes acceso educación recodificada: REVISADA</t>
+  </si>
+  <si>
+    <t>Inconvenientes acceso educación recodificada -REVISADO</t>
   </si>
 </sst>
 </file>
@@ -321,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +354,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,6 +539,26 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,6 +575,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -521,9 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D28E8-ED79-4903-B6C8-37423C6F0919}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:F13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,32 +917,32 @@
     <col min="5" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -896,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -909,14 +970,14 @@
       <c r="D4" s="4"/>
       <c r="E4" s="8">
         <f t="shared" ref="E4:F8" si="0">+B4/B$12*100</f>
-        <v>18.482384531733135</v>
+        <v>81.11396391460039</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>34.803918916718892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87.727794104882577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -929,14 +990,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>1.1967705935680697</v>
+        <v>5.2522880137064414</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>3.895032747543282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.8179354953073137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -949,14 +1010,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>1.3389042656684547</v>
+        <v>5.8760725437818557</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>0.36970118472324121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.93187981190680402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -969,14 +1030,14 @@
       <c r="D7" s="2"/>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>1.7019087160661104</v>
+        <v>7.4691965175764707</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0.52638592280509622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.3268240270888303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -989,14 +1050,14 @@
       <c r="D8" s="2"/>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>1.0078038796207238</v>
+        <v>4.4229664946205975</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>0.34932521415797718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>0.88051953392448912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1009,14 +1070,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="8">
         <f t="shared" ref="E9:E10" si="1">+B9/B$12*100</f>
-        <v>0.39888135251149959</v>
+        <v>1.7505775609350329</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:F10" si="2">+C9/C$12*100</f>
-        <v>0.27980909024836076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.70529512256135451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1029,65 +1090,68 @@
       <c r="D10" s="2"/>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>0.52879787048193494</v>
+        <v>2.3207444532248909</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>0.70561854670022828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.778603114483404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="34">
-        <v>327.10998465699998</v>
+        <v>74.534300000000002</v>
       </c>
       <c r="C12" s="34">
-        <v>4351.9356055199996</v>
+        <v>1726.5271</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-    </row>
-    <row r="14" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
       <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1113,14 +1177,14 @@
         <v>1505.112812073</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F19">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E19" s="12">
+        <v>80.649902125598544</v>
+      </c>
+      <c r="F19" s="12">
+        <v>87.175741405970413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1131,41 +1195,82 @@
         <v>221.41429058899999</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F20">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="12">
+        <v>19.350097874401449</v>
+      </c>
+      <c r="F20" s="12">
+        <v>12.824258594029597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="34">
-        <v>327.10998465699998</v>
+        <v>74.534300000000002</v>
       </c>
       <c r="C22" s="34">
-        <v>4351.9356055199996</v>
+        <v>1726.5271</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="54"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1176,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2B3C0-0822-4557-9633-BD290726DFF7}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,71 +1294,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
       <c r="M1" s="25"/>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
     </row>
     <row r="3" spans="1:24" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="55"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
@@ -1359,38 +1464,38 @@
       <c r="L4" s="10">
         <v>85.865096430999998</v>
       </c>
-      <c r="N4">
-        <v>37.9</v>
-      </c>
-      <c r="O4">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="P4">
-        <v>41.7</v>
-      </c>
-      <c r="Q4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="R4">
-        <v>10.6</v>
-      </c>
-      <c r="S4">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="T4">
+      <c r="N4" s="12">
+        <v>84.328402935296992</v>
+      </c>
+      <c r="O4" s="12">
+        <v>87.554008271413991</v>
+      </c>
+      <c r="P4" s="12">
+        <v>89.097084262367375</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>78.821265568756246</v>
+      </c>
+      <c r="R4" s="12">
+        <v>93.826800657763215</v>
+      </c>
+      <c r="S4" s="12">
+        <v>85.786030702240083</v>
+      </c>
+      <c r="T4" s="12">
         <v>100</v>
       </c>
-      <c r="U4">
-        <v>42.4</v>
-      </c>
-      <c r="V4">
-        <v>34.5</v>
-      </c>
-      <c r="W4">
-        <v>48.6</v>
-      </c>
-      <c r="X4">
-        <v>43.5</v>
+      <c r="U4" s="12">
+        <v>80.419734388471056</v>
+      </c>
+      <c r="V4" s="12">
+        <v>81.398001880770948</v>
+      </c>
+      <c r="W4" s="12">
+        <v>81.887194470872231</v>
+      </c>
+      <c r="X4" s="12">
+        <v>74.198209781298928</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -1430,38 +1535,38 @@
       <c r="L5" s="10">
         <v>17.981365516</v>
       </c>
-      <c r="N5">
-        <v>3.8</v>
-      </c>
-      <c r="O5">
-        <v>3.9</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>0.4</v>
-      </c>
-      <c r="S5">
-        <v>2.6</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>6.2</v>
-      </c>
-      <c r="V5">
-        <v>2.4</v>
-      </c>
-      <c r="W5">
-        <v>7.9</v>
-      </c>
-      <c r="X5">
-        <v>9.1</v>
+      <c r="N5" s="12">
+        <v>8.4747317689936938</v>
+      </c>
+      <c r="O5" s="12">
+        <v>9.5431246884001819</v>
+      </c>
+      <c r="P5" s="12">
+        <v>7.3867027504345417</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>8.9458665512176818</v>
+      </c>
+      <c r="R5" s="12">
+        <v>3.2244598403885263</v>
+      </c>
+      <c r="S5" s="12">
+        <v>5.489764846189388</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>11.670910470791645</v>
+      </c>
+      <c r="V5" s="12">
+        <v>5.6762814878325747</v>
+      </c>
+      <c r="W5" s="12">
+        <v>13.296080223946168</v>
+      </c>
+      <c r="X5" s="12">
+        <v>15.538154455838935</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -1501,38 +1606,38 @@
       <c r="L6" s="10">
         <v>1.2193162529999999</v>
       </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="O6">
-        <v>0.4</v>
-      </c>
-      <c r="P6">
-        <v>0.7</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6">
-        <v>0.3</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.4</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>2.9</v>
-      </c>
-      <c r="X6">
-        <v>0.6</v>
+      <c r="N6" s="12">
+        <v>1.0175091096820628</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.90129477865411001</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1.4621260424941289</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2.8693042284578754</v>
+      </c>
+      <c r="R6" s="12">
+        <v>2.9487395018482672</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.71137974836915696</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>4.8167253051816106</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1.0536421303916272</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -1572,38 +1677,38 @@
       <c r="L7" s="10">
         <v>2.43435961</v>
       </c>
-      <c r="N7">
-        <v>0.8</v>
-      </c>
-      <c r="O7">
-        <v>0.2</v>
-      </c>
-      <c r="P7">
-        <v>0.7</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1.4</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.9</v>
-      </c>
-      <c r="V7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1.2</v>
+      <c r="N7" s="12">
+        <v>1.8448544120614936</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.44376572681357068</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1.4349267887279624</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>4.7367331617422863</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2.9638921071582578</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1.7429075586652867</v>
+      </c>
+      <c r="V7" s="12">
+        <v>5.5001979229616671</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>2.1035919428687637</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -1643,38 +1748,38 @@
       <c r="L8" s="10">
         <v>3.330948196</v>
       </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-      <c r="O8">
-        <v>0.1</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>1.2</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1.7</v>
+      <c r="N8" s="12">
+        <v>1.1995767604392269</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0.25757037844434977</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0.1873061092386499</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0.6190004777204543</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>2.2665545294189648</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>2.8783569027498133</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -1714,38 +1819,38 @@
       <c r="L9" s="10">
         <v>2.833262731</v>
       </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.3</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.2</v>
-      </c>
-      <c r="V9">
-        <v>0.6</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1.4</v>
+      <c r="N9" s="12">
+        <v>1.3738279467366059</v>
+      </c>
+      <c r="O9" s="12">
+        <v>6.823581273647826E-2</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>1.5206013986188274</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0.42185177422099063</v>
+      </c>
+      <c r="V9" s="12">
+        <v>1.3024517838836978</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>2.4482942571339943</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -1785,38 +1890,38 @@
       <c r="L10" s="10">
         <v>2.0595975470000001</v>
       </c>
-      <c r="N10">
-        <v>0.8</v>
-      </c>
-      <c r="O10">
-        <v>0.5</v>
-      </c>
-      <c r="P10">
-        <v>0.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>2.7</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1.5</v>
-      </c>
-      <c r="V10">
-        <v>2.6</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
+      <c r="N10" s="12">
+        <v>1.7610970667899275</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1.2320003435373168</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.43185404673735922</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>2.4872286134866313</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>5.7603123444122577</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>2.766661530062887</v>
+      </c>
+      <c r="V10" s="12">
+        <v>6.1230669245511198</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1.779750529717945</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1824,37 +1929,37 @@
         <v>21</v>
       </c>
       <c r="B12" s="34">
-        <v>1246.7857935899999</v>
+        <v>560.80421302399998</v>
       </c>
       <c r="C12" s="34">
-        <v>1242.608455991</v>
+        <v>506.89172756800002</v>
       </c>
       <c r="D12" s="34">
-        <v>396.13110921700002</v>
+        <v>185.41784430399997</v>
       </c>
       <c r="E12" s="34">
-        <v>269.09342045300002</v>
+        <v>59.485801263999996</v>
       </c>
       <c r="F12" s="34">
-        <v>616.13817718200005</v>
+        <v>69.846710626999993</v>
       </c>
       <c r="G12" s="34">
-        <v>65.643769707000004</v>
+        <v>31.164852957000004</v>
       </c>
       <c r="H12" s="34">
         <v>1</v>
       </c>
       <c r="I12" s="34">
-        <v>536.94859835399996</v>
+        <v>283.23567400100006</v>
       </c>
       <c r="J12" s="34">
-        <v>90.459641865999998</v>
+        <v>38.303612860999998</v>
       </c>
       <c r="K12" s="34">
-        <v>16.884204661000005</v>
+        <v>10.014234681000001</v>
       </c>
       <c r="L12" s="34">
-        <v>197.352419156</v>
+        <v>115.72394628399999</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1914,37 +2019,37 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
@@ -1970,27 +2075,21 @@
         <v>22</v>
       </c>
       <c r="B19" s="13">
-        <f t="shared" ref="B19:B25" si="0">+B4+C4+I4+K4+L4</f>
         <v>1238.5641105029999</v>
       </c>
       <c r="C19" s="13">
-        <f>+D4</f>
         <v>165.201892977</v>
       </c>
       <c r="D19" s="13">
-        <f>+E4+F4+J4</f>
         <v>143.600770853</v>
       </c>
       <c r="F19" s="12">
-        <f>+B19/B$27*100</f>
         <v>83.875495674710052</v>
       </c>
       <c r="G19" s="12">
-        <f>+C19/C$27*100</f>
         <v>89.097084262367375</v>
       </c>
       <c r="H19" s="12">
-        <f>+D19/D$27*100</f>
         <v>85.662187112379385</v>
       </c>
     </row>
@@ -1999,27 +2098,21 @@
         <v>23</v>
       </c>
       <c r="B20" s="13">
-        <f t="shared" si="0"/>
         <v>148.26901052700001</v>
       </c>
       <c r="C20" s="13">
-        <f t="shared" ref="C20:C25" si="1">+D5</f>
         <v>13.696265005000001</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" ref="D20:D25" si="2">+E5+F5+J5</f>
         <v>9.7479204180000014</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" ref="F20:H25" si="3">+B20/B$27*100</f>
         <v>10.040769505343103</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="3"/>
         <v>7.3867027504345417</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="3"/>
         <v>5.8149282754066416</v>
       </c>
     </row>
@@ -2028,27 +2121,21 @@
         <v>24</v>
       </c>
       <c r="B21" s="13">
-        <f t="shared" si="0"/>
         <v>13.991378283</v>
       </c>
       <c r="C21" s="13">
-        <f t="shared" si="1"/>
         <v>2.7110425890000003</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="2"/>
         <v>3.7664261579999998</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
         <v>0.94749539301797503</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="3"/>
         <v>1.4621260424941289</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="3"/>
         <v>2.2467867015967053</v>
       </c>
     </row>
@@ -2057,27 +2144,21 @@
         <v>25</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="0"/>
         <v>19.966328607000005</v>
       </c>
       <c r="C22" s="13">
-        <f t="shared" si="1"/>
         <v>2.6606103189999999</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="2"/>
         <v>4.9244581939999996</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
         <v>1.3521187111066484</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="3"/>
         <v>1.4349267887279624</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="3"/>
         <v>2.937587707473682</v>
       </c>
     </row>
@@ -2086,27 +2167,21 @@
         <v>26</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" si="0"/>
         <v>17.783519146</v>
       </c>
       <c r="C23" s="13">
-        <f t="shared" si="1"/>
         <v>0.34729895</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="2"/>
         <v>0.36821739399999998</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="3"/>
         <v>1.2042989705278027</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="3"/>
         <v>0.1873061092386499</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="3"/>
         <v>0.21965277146840442</v>
       </c>
     </row>
@@ -2115,27 +2190,21 @@
         <v>27</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" si="0"/>
         <v>12.078464142</v>
       </c>
       <c r="C24" s="13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" si="2"/>
         <v>1.403428015</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="3"/>
         <v>0.81795294915176509</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="3"/>
         <v>0.83718710216919168</v>
       </c>
     </row>
@@ -2144,27 +2213,21 @@
         <v>28</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" si="0"/>
         <v>26.016984349999998</v>
       </c>
       <c r="C25" s="13">
-        <f t="shared" si="1"/>
         <v>0.80073446400000003</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="2"/>
         <v>3.82490372</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="3"/>
         <v>1.7618687961426591</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="3"/>
         <v>0.43185404673735922</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="3"/>
         <v>2.2816703295059715</v>
       </c>
     </row>
@@ -2173,15 +2236,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="17">
-        <f>+SUM(B19:B25)</f>
         <v>1476.6697955579998</v>
       </c>
       <c r="C27" s="17">
-        <f>+SUM(C19:C25)</f>
         <v>185.41784430399997</v>
       </c>
       <c r="D27" s="17">
-        <f>+SUM(D19:D25)</f>
         <v>167.63612475200003</v>
       </c>
       <c r="E27" s="16"/>
@@ -2195,68 +2255,68 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="N32" s="48" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="N32" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48" t="s">
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2363,38 +2423,49 @@
       <c r="L34" s="10">
         <v>85.865096430999998</v>
       </c>
-      <c r="N34">
-        <v>37.6</v>
-      </c>
-      <c r="O34">
-        <v>35.5</v>
-      </c>
-      <c r="P34">
-        <v>41.5</v>
-      </c>
-      <c r="Q34">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="R34">
-        <v>10.3</v>
-      </c>
-      <c r="S34">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="T34">
+      <c r="N34" s="12">
+        <f>+B34/B$37*100</f>
+        <v>88.04626626716427</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" ref="O34:X35" si="0">+C34/C$37*100</f>
+        <v>87.912838491283225</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="0"/>
+        <v>91.304266981923561</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>81.470172969725127</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="0"/>
+        <v>93.639238477378427</v>
+      </c>
+      <c r="S34" s="12">
+        <f t="shared" si="0"/>
+        <v>88.406298984562767</v>
+      </c>
+      <c r="T34" s="12">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="U34">
-        <v>42.4</v>
-      </c>
-      <c r="V34">
-        <v>34.5</v>
-      </c>
-      <c r="W34">
-        <v>48.6</v>
-      </c>
-      <c r="X34">
-        <v>43.5</v>
+      <c r="U34" s="12">
+        <f t="shared" si="0"/>
+        <v>83.069173525507935</v>
+      </c>
+      <c r="V34" s="12">
+        <f t="shared" si="0"/>
+        <v>82.759199343455492</v>
+      </c>
+      <c r="W34" s="12">
+        <f t="shared" si="0"/>
+        <v>81.887191862383929</v>
+      </c>
+      <c r="X34" s="12">
+        <f t="shared" si="0"/>
+        <v>79.090934190318933</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
@@ -2434,38 +2505,49 @@
       <c r="L35" s="10">
         <v>22.699935887999999</v>
       </c>
-      <c r="N35">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O35">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-      <c r="R35">
-        <v>0.7</v>
-      </c>
-      <c r="S35">
-        <v>5.3</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>8.6</v>
-      </c>
-      <c r="V35">
-        <v>7.2</v>
-      </c>
-      <c r="W35">
-        <v>10.7</v>
-      </c>
-      <c r="X35">
-        <v>11.5</v>
+      <c r="N35" s="12">
+        <f>+B35/B$37*100</f>
+        <v>11.953734191263008</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="0"/>
+        <v>12.087162038570826</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6957310806040145</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>18.529830352505723</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3607616406380947</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="0"/>
+        <v>11.593702139732736</v>
+      </c>
+      <c r="T35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" si="0"/>
+        <v>16.930827797603992</v>
+      </c>
+      <c r="V35" s="12">
+        <f t="shared" si="0"/>
+        <v>17.240801394461648</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="0"/>
+        <v>18.112804952150615</v>
+      </c>
+      <c r="X35" s="12">
+        <f t="shared" si="0"/>
+        <v>20.909067945728012</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
@@ -2486,37 +2568,37 @@
         <v>1</v>
       </c>
       <c r="B37" s="34">
-        <v>1246.7857935899999</v>
+        <v>531.81826000000001</v>
       </c>
       <c r="C37" s="34">
-        <v>1242.608455991</v>
+        <v>502.02503999999999</v>
       </c>
       <c r="D37" s="34">
-        <v>396.13110921700002</v>
+        <v>180.18321</v>
       </c>
       <c r="E37" s="34">
-        <v>269.09342045300002</v>
+        <v>57.551690000000001</v>
       </c>
       <c r="F37" s="34">
-        <v>616.13817718200005</v>
+        <v>67.787113000000005</v>
       </c>
       <c r="G37" s="34">
-        <v>65.643769707000004</v>
+        <v>30.241160000000001</v>
       </c>
       <c r="H37" s="34">
         <v>1</v>
       </c>
       <c r="I37" s="34">
-        <v>536.94859835399996</v>
+        <v>274.20204999999999</v>
       </c>
       <c r="J37" s="34">
-        <v>90.459641865999998</v>
+        <v>37.673606999999997</v>
       </c>
       <c r="K37" s="34">
-        <v>16.884204661000005</v>
+        <v>10.014234999999999</v>
       </c>
       <c r="L37" s="34">
-        <v>197.352419156</v>
+        <v>108.56502999999999</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.35">
@@ -2525,37 +2607,37 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="55"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="22" t="s">
         <v>43</v>
       </c>
@@ -2593,15 +2675,15 @@
         <v>141.54117330599999</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" ref="F44:H45" si="4">+B44/B$47*100</f>
+        <f t="shared" ref="F44:H45" si="1">+B44/B$47*100</f>
         <v>86.317971149231468</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>91.304268750918595</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>86.828463756221907</v>
       </c>
     </row>
@@ -2622,15 +2704,15 @@
         <v>21.471238964000001</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13.682028850768537</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8.69573124908141</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13.171536243778084</v>
       </c>
     </row>
@@ -2657,15 +2739,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="B2:L2"/>
@@ -2676,6 +2749,15 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2685,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA2749-C271-458F-9189-F6CED7A362A0}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2700,43 +2782,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2790,24 +2872,19 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <f t="shared" ref="H4:L10" si="0">+B4/B$12*100</f>
-        <v>23.192073082679936</v>
+        <v>99.999993535406645</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="0"/>
-        <v>39.9465412537294</v>
+        <v>87.934549829829066</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="0"/>
-        <v>29.459963887802548</v>
+        <v>86.344176158963933</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="0"/>
-        <v>40.907185171699098</v>
+        <v>83.843629030569488</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" si="0"/>
-        <v>42.829839898850835</v>
+        <v>80.871105362582767</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2831,24 +2908,19 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="0"/>
-        <v>5.5326755793637803</v>
+        <v>12.17911040997628</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4205485215113551</v>
+        <v>12.956180860040241</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="0"/>
-        <v>5.9008931834517648</v>
+        <v>12.094508506164132</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="0"/>
-        <v>6.0474165307944245</v>
+        <v>11.41870388935128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2872,23 +2944,18 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.70033319580785547</v>
+        <v>1.5416474711311805</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7831382642969502E-2</v>
+        <v>0.22811591484681762</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.85530171933443278</v>
+        <v>1.7530318882634053</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2913,23 +2980,18 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.6305527129780848</v>
+        <v>1.3880392950047646</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7831382642969502E-2</v>
+        <v>0.22811591484681762</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" si="0"/>
-        <v>8.812068372223876E-2</v>
+        <v>0.18061271839938361</v>
       </c>
       <c r="L7" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2954,24 +3016,19 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" si="0"/>
-        <v>7.2805784278309069E-2</v>
+        <v>0.16026778951539522</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7831382642969502E-2</v>
+        <v>0.22811591484681762</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="0"/>
-        <v>2.4366896902552551</v>
+        <v>4.6009461894308679</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2995,23 +3052,18 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>9.8642252014806503E-2</v>
+        <v>0.21714175377606065</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7831382642969502E-2</v>
+        <v>0.22811591484681762</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="0"/>
-        <v>2.3937789192200398</v>
+        <v>4.9063046220822697</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3036,24 +3088,19 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.19434529990372129</v>
+        <v>0.56960642838742026</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.67646220828084103</v>
+        <v>1.3864812796637334</v>
       </c>
       <c r="L10" s="12">
-        <f t="shared" si="0"/>
-        <v>5.5482227684490031</v>
+        <v>10.476128538933875</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3061,19 +3108,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="17">
-        <v>32.549101950000001</v>
+        <v>7.5488119999999999</v>
       </c>
       <c r="C12" s="17">
-        <v>505.75293934400003</v>
+        <v>229.75134</v>
       </c>
       <c r="D12" s="17">
-        <v>656.009445884</v>
+        <v>223.82534000000001</v>
       </c>
       <c r="E12" s="17">
-        <v>240.80362525199999</v>
+        <v>117.48774</v>
       </c>
       <c r="F12" s="17">
-        <v>37.121752909999998</v>
+        <v>19.659911000000001</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="16"/>
@@ -3084,47 +3131,47 @@
     </row>
     <row r="14" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -3177,20 +3224,20 @@
         <v>14.450864121</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19">
-        <v>23.2</v>
-      </c>
-      <c r="I19">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="J19">
-        <v>29.5</v>
-      </c>
-      <c r="K19">
-        <v>40.1</v>
-      </c>
-      <c r="L19">
-        <v>38.9</v>
+      <c r="H19" s="12">
+        <v>99.999993535406645</v>
+      </c>
+      <c r="I19" s="12">
+        <v>86.30668745044099</v>
+      </c>
+      <c r="J19" s="12">
+        <v>86.344176158963933</v>
+      </c>
+      <c r="K19" s="12">
+        <v>82.090597142306081</v>
+      </c>
+      <c r="L19" s="12">
+        <v>73.504219429070659</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -3213,20 +3260,20 @@
         <v>5.2090464949999999</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>6.2</v>
-      </c>
-      <c r="J20">
-        <v>4.7</v>
-      </c>
-      <c r="K20">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L20">
-        <v>14</v>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>13.693313979800944</v>
+      </c>
+      <c r="J20" s="12">
+        <v>13.65582232958967</v>
+      </c>
+      <c r="K20" s="12">
+        <v>17.909399962923793</v>
+      </c>
+      <c r="L20" s="12">
+        <v>26.49577861771602</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -3247,19 +3294,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="17">
-        <v>32.549101950000001</v>
+        <v>7.5488119999999999</v>
       </c>
       <c r="C22" s="17">
-        <v>505.75293934400003</v>
+        <v>229.75134</v>
       </c>
       <c r="D22" s="17">
-        <v>656.009445884</v>
+        <v>223.82534000000001</v>
       </c>
       <c r="E22" s="17">
-        <v>240.80362525199999</v>
+        <v>117.48774</v>
       </c>
       <c r="F22" s="17">
-        <v>37.121752909999998</v>
+        <v>19.659911000000001</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="31"/>
@@ -3289,7 +3336,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3305,52 +3352,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3524,7 +3571,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3536,35 +3583,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="23"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
@@ -3879,35 +3926,35 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="23"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="22" t="s">
         <v>2</v>
       </c>
@@ -4063,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710C17C0-C48D-4271-AB51-26E0F6033569}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4077,31 +4124,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4360,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4BAC9-2733-45D1-A7C3-FFF0284F0753}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD29"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4375,31 +4422,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4425,11 +4472,13 @@
         <v>52.305704404000004</v>
       </c>
       <c r="D4" s="41"/>
-      <c r="E4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F4">
-        <v>1.2</v>
+      <c r="E4" s="48">
+        <f t="shared" ref="E4:F10" si="0">+B4/B$12*100</f>
+        <v>10.411643455714286</v>
+      </c>
+      <c r="F4" s="48">
+        <f t="shared" si="0"/>
+        <v>4.9720251334600762</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -4443,11 +4492,13 @@
         <v>21.511633739000001</v>
       </c>
       <c r="D5" s="43"/>
-      <c r="E5">
-        <v>3.8</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
+      <c r="E5" s="48">
+        <f t="shared" si="0"/>
+        <v>17.861443357142861</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0448321044676807</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4461,11 +4512,13 @@
         <v>19.805413001999998</v>
       </c>
       <c r="D6" s="43"/>
-      <c r="E6">
-        <v>0.7</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
+      <c r="E6" s="48">
+        <f t="shared" si="0"/>
+        <v>3.2669575071428572</v>
+      </c>
+      <c r="F6" s="48">
+        <f t="shared" si="0"/>
+        <v>1.8826438214828896</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4479,11 +4532,13 @@
         <v>18.592710278000002</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.4</v>
+      <c r="E7" s="48">
+        <f t="shared" si="0"/>
+        <v>4.9520271985714288</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" si="0"/>
+        <v>1.7673678971482891</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4496,11 +4551,13 @@
       <c r="C8" s="10">
         <v>15.290340855</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.4</v>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>4.5785798157142858</v>
+      </c>
+      <c r="F8" s="48">
+        <f t="shared" si="0"/>
+        <v>1.4534544538973384</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4514,11 +4571,13 @@
         <v>12.703299546</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
+      <c r="E9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
+        <f t="shared" si="0"/>
+        <v>1.2075379796577947</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4532,11 +4591,13 @@
         <v>15.57471879</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10">
-        <v>1.5</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
+      <c r="E10" s="48">
+        <f t="shared" si="0"/>
+        <v>6.8476435828571436</v>
+      </c>
+      <c r="F10" s="48">
+        <f t="shared" si="0"/>
+        <v>1.4804865769961979</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -4548,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="34">
-        <v>327.10998465699998</v>
+        <v>70</v>
       </c>
       <c r="C12" s="34">
-        <v>4351.9356055199996</v>
+        <v>1052</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4560,6 +4621,10 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4573,6 +4638,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C67237C462054AB2A2EEBF6DF77606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35c831603d7ab223d2f5d2ab06f125ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d13d130-f367-41bf-8435-aab6481a31cc" xmlns:ns4="9840afb1-5d18-42a2-bcba-2c8e802c66c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8448abd0b4646354f8a217217672beb0" ns3:_="" ns4:_="">
     <xsd:import namespace="1d13d130-f367-41bf-8435-aab6481a31cc"/>
@@ -4799,38 +4881,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
-    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4853,9 +4907,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
+    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tables/3.Educación/Educación.xlsx
+++ b/tables/3.Educación/Educación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/3.Educación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48119075-4EC9-4DE7-8A9A-F21FD9761071}"/>
+  <xr:revisionPtr revIDLastSave="1033" documentId="8_{2C70711B-A078-4C69-BA85-914178A04773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0907F52-CDD7-4C8B-81A2-7951D280BDAC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CCE4960F-43FD-4FEF-86C7-8FE5A9553102}"/>
   </bookViews>
   <sheets>
     <sheet name="q36" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
   <si>
     <t>Ninguna</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Inconvenientes acceso educación recodificada -REVISADO</t>
+  </si>
+  <si>
+    <t>v2</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -556,11 +559,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -574,8 +574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,9 +589,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D28E8-ED79-4903-B6C8-37423C6F0919}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,31 +926,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,31 +1135,31 @@
       <c r="A15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="22" t="s">
         <v>2</v>
       </c>
@@ -1226,16 +1234,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" s="52"/>
@@ -1260,17 +1268,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1281,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2B3C0-0822-4557-9633-BD290726DFF7}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:X12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,65 +1305,65 @@
       <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="25"/>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
     </row>
     <row r="3" spans="1:24" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="64"/>
@@ -2022,31 +2030,31 @@
       <c r="A16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="63"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="64"/>
@@ -2258,62 +2266,62 @@
       <c r="A31" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="63"/>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="N32" s="56" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="N32" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56" t="s">
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="64"/>
@@ -2610,31 +2618,31 @@
       <c r="A41" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="63"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="64"/>
@@ -2739,6 +2747,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="B31:X31"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="B2:L2"/>
@@ -2749,15 +2766,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="B31:X31"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2768,7 +2776,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:L22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2782,43 +2790,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="65"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -3135,43 +3143,43 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="65"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
@@ -3333,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154867A2-9941-48B1-BC7F-306D38BB9C0F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3352,35 +3360,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
@@ -3554,12 +3562,191 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="57"/>
+      <c r="B15" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="10">
+        <v>346.13955437499999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>36.823799983999997</v>
+      </c>
+      <c r="D16" s="10">
+        <v>150.10195710799999</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="12">
+        <v>64.933798341224119</v>
+      </c>
+      <c r="G16" s="12">
+        <v>6.9079340170645516</v>
+      </c>
+      <c r="H16" s="12">
+        <v>28.158267641711333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10">
+        <v>85.464313138999998</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4.9513233439999995</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45.093517679000001</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="12">
+        <v>63.069032987120679</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.6538663196736771</v>
+      </c>
+      <c r="H17" s="12">
+        <v>33.277100693205632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13.920807519</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7.0991709499999995</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="12">
+        <v>63.218987877748766</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4.5413305076924235</v>
+      </c>
+      <c r="H18" s="12">
+        <v>32.239681614558798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="33">
+        <v>899.17591919000006</v>
+      </c>
+      <c r="C19" s="33">
+        <v>33.439384077</v>
+      </c>
+      <c r="D19" s="33">
+        <v>166.20135976099999</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="47">
+        <v>81.831296288513528</v>
+      </c>
+      <c r="G19" s="47">
+        <v>3.0432177816498855</v>
+      </c>
+      <c r="H19" s="47">
+        <v>15.125485929836582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="67">
+        <v>119.879478975</v>
+      </c>
+      <c r="C20" s="67">
+        <v>4.22248</v>
+      </c>
+      <c r="D20" s="67">
+        <v>21.474672185999999</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="68">
+        <v>82.348023868212522</v>
+      </c>
+      <c r="G20" s="68">
+        <v>2.9005204793688089</v>
+      </c>
+      <c r="H20" s="68">
+        <v>14.75145565241866</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3571,7 +3758,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3583,35 +3770,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="23"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
@@ -3926,35 +4113,35 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="23"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="22" t="s">
         <v>2</v>
       </c>
@@ -3979,93 +4166,78 @@
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="e">
-        <f>+B4+B5+#REF!+B11+B12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" t="e">
-        <f>+C4+C5+#REF!+C11+C12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" t="e">
-        <f>+D4+D5+#REF!+D11+D12</f>
-        <v>#REF!</v>
+      <c r="B22" s="10">
+        <v>1037.76425208</v>
+      </c>
+      <c r="C22" s="10">
+        <v>64.834614251000005</v>
+      </c>
+      <c r="D22" s="10">
+        <v>259.30005877000002</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="8" t="e">
-        <f t="shared" ref="F22:H24" si="3">+B22/B$26*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+      <c r="F22" s="8">
+        <v>69.840315096413491</v>
+      </c>
+      <c r="G22" s="8">
+        <v>71.871672264893547</v>
+      </c>
+      <c r="H22" s="8">
+        <v>65.146989996497524</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <f>+B6</f>
+      <c r="B23" s="10">
         <v>139.49614713299999</v>
       </c>
-      <c r="C23">
-        <f>+C6</f>
+      <c r="C23" s="10">
         <v>4.8470027470000003</v>
       </c>
-      <c r="D23">
-        <f>+D6</f>
+      <c r="D23" s="10">
         <v>35.840056629000003</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+      <c r="F23" s="8">
+        <v>9.3879268349988827</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5.3730896207815357</v>
+      </c>
+      <c r="H23" s="8">
+        <v>9.0045170901962912</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24">
-        <f>+B7+B8+B9+B10</f>
+      <c r="B24" s="10">
         <v>308.64963805899998</v>
       </c>
-      <c r="C24">
-        <f>+C7+C8+C9+C10</f>
+      <c r="C24" s="10">
         <v>20.527240272</v>
       </c>
-      <c r="D24">
-        <f>+D7+D8+D9+D10</f>
+      <c r="D24" s="10">
         <v>102.882968682</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+      <c r="F24" s="8">
+        <v>20.771758068587619</v>
+      </c>
+      <c r="G24" s="8">
+        <v>22.755238114324911</v>
+      </c>
+      <c r="H24" s="8">
+        <v>25.848492913306181</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -4074,17 +4246,17 @@
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="11" t="e">
+      <c r="B26" s="11">
         <f>+B22+B23+B24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C26" s="11" t="e">
+        <v>1485.910037272</v>
+      </c>
+      <c r="C26" s="11">
         <f>+C22+C23+C24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="11" t="e">
+        <v>90.20885727000001</v>
+      </c>
+      <c r="D26" s="11">
         <f>+D22+D23+D24</f>
-        <v>#REF!</v>
+        <v>398.02308408100004</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -4110,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710C17C0-C48D-4271-AB51-26E0F6033569}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:N18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4124,31 +4296,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4422,31 +4594,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4638,23 +4810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016C67237C462054AB2A2EEBF6DF77606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35c831603d7ab223d2f5d2ab06f125ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d13d130-f367-41bf-8435-aab6481a31cc" xmlns:ns4="9840afb1-5d18-42a2-bcba-2c8e802c66c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8448abd0b4646354f8a217217672beb0" ns3:_="" ns4:_="">
     <xsd:import namespace="1d13d130-f367-41bf-8435-aab6481a31cc"/>
@@ -4881,10 +5036,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
+    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4907,20 +5090,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C990D9-0C1B-455D-9CC6-77E8DFD92887}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8431ECA9-AA9A-46E9-9D6E-D450A740F8DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
-    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>